--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b7b412bfd75d269/Company/Machine_Learning/Soccer_2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{D45B110E-01B1-46B0-A260-C3C0A092DF72}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{7F05DB62-6D81-4D09-ABAB-E953F2A93E24}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{97F8D0B3-D4FB-4D98-AB10-F633E3C104D7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,9 @@
     <t>match_number</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -38,12 +41,12 @@
     <t>home_team/country</t>
   </si>
   <si>
+    <t>away_team/country</t>
+  </si>
+  <si>
     <t>home_team/goals</t>
   </si>
   <si>
-    <t>away_team/country</t>
-  </si>
-  <si>
     <t>away_team/goals</t>
   </si>
   <si>
@@ -53,19 +56,130 @@
     <t>away_team/penalties</t>
   </si>
   <si>
+    <t>Luzhniki Stadium, Moscow</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Ekaterinburg Stadium</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Saint Petersburg Stadium</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Fisht Stadium, Sochi</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Kazan Arena</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Otkrytiye Arena, Moscow</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Saransk Stadium</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Kaliningrad Stadium</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Samara Stadium</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Rostov-on-Don Stadium</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Australia</t>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod Stadium</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Korea Republic</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Volgograd Stadium</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>England</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -74,43 +188,10 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Korea Republic</t>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Senegal</t>
   </si>
   <si>
     <t>Country</t>
@@ -120,209 +201,16 @@
   </si>
   <si>
     <t>Punkte</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Luzhniki Stadium, Moscow</t>
-  </si>
-  <si>
-    <t>Ekaterinburg Stadium</t>
-  </si>
-  <si>
-    <t>Saint Petersburg Stadium</t>
-  </si>
-  <si>
-    <t>Fisht Stadium, Sochi</t>
-  </si>
-  <si>
-    <t>Kazan Arena</t>
-  </si>
-  <si>
-    <t>Otkrytiye Arena, Moscow</t>
-  </si>
-  <si>
-    <t>Saransk Stadium</t>
-  </si>
-  <si>
-    <t>Kaliningrad Stadium</t>
-  </si>
-  <si>
-    <t>Samara Stadium</t>
-  </si>
-  <si>
-    <t>Rostov-on-Don Stadium</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod Stadium</t>
-  </si>
-  <si>
-    <t>Volgograd Stadium</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,15 +223,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,297 +233,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,101 +262,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1073,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,31 +613,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1129,19 +648,19 @@
         <v>43265.75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1157,13 +676,13 @@
         <v>43266.625</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -1174,8 +693,12 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1185,16 +708,16 @@
         <v>43266.75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1213,16 +736,16 @@
         <v>43266.875</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -1238,19 +761,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>43267.541666666664</v>
+        <v>43267.541666666657</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1266,19 +789,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>43267.666666666664</v>
+        <v>43267.666666666657</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1294,19 +817,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>43267.791666666664</v>
+        <v>43267.791666666657</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1322,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>43267.916666666664</v>
+        <v>43267.916666666657</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1353,16 +876,16 @@
         <v>43268.625</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1381,16 +904,16 @@
         <v>43268.75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1409,16 +932,16 @@
         <v>43268.875</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1437,16 +960,16 @@
         <v>43269.625</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1465,16 +988,16 @@
         <v>43269.75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1493,16 +1016,16 @@
         <v>43269.875</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1521,16 +1044,16 @@
         <v>43270.625</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1549,16 +1072,16 @@
         <v>43270.75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1577,16 +1100,16 @@
         <v>43270.875</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1605,16 +1128,16 @@
         <v>43271.625</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1633,16 +1156,16 @@
         <v>43271.75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1661,16 +1184,16 @@
         <v>43271.875</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1689,16 +1212,16 @@
         <v>43272.625</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1717,16 +1240,16 @@
         <v>43272.75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1745,16 +1268,16 @@
         <v>43272.875</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -1773,16 +1296,16 @@
         <v>43273.625</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1801,16 +1324,16 @@
         <v>43273.75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -1829,16 +1352,16 @@
         <v>43273.875</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -1857,16 +1380,16 @@
         <v>43274.625</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -1885,16 +1408,16 @@
         <v>43274.75</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -1913,16 +1436,16 @@
         <v>43274.875</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1941,16 +1464,16 @@
         <v>43275.625</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -1969,16 +1492,16 @@
         <v>43275.75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -1997,16 +1520,16 @@
         <v>43275.875</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -2022,19 +1545,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>43276.708333333336</v>
+        <v>43276.708333333343</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -2050,19 +1573,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>43276.708333333336</v>
+        <v>43276.708333333343</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -2081,16 +1604,16 @@
         <v>43276.875</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -2109,16 +1632,16 @@
         <v>43276.875</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -2134,19 +1657,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>43277.708333333336</v>
+        <v>43277.708333333343</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
@@ -2162,19 +1685,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>43277.708333333336</v>
+        <v>43277.708333333343</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -2193,16 +1716,16 @@
         <v>43277.875</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -2221,16 +1744,16 @@
         <v>43277.875</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -2246,19 +1769,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>43278.708333333336</v>
+        <v>43278.708333333343</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -2274,19 +1797,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>43278.708333333336</v>
+        <v>43278.708333333343</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -2305,16 +1828,16 @@
         <v>43278.875</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -2333,16 +1856,16 @@
         <v>43278.875</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -2358,19 +1881,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>43279.708333333336</v>
+        <v>43279.708333333343</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -2386,19 +1909,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>43279.708333333336</v>
+        <v>43279.708333333343</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -2417,16 +1940,16 @@
         <v>43279.875</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -2445,16 +1968,16 @@
         <v>43279.875</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -2470,13 +1993,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>43281.708333333336</v>
+        <v>43281.708333333343</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2497,10 +2020,10 @@
         <v>43281.875</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2518,13 +2041,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>43282.708333333336</v>
+        <v>43282.708333333343</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2545,10 +2068,10 @@
         <v>43282.875</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2566,13 +2089,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>43283.708333333336</v>
+        <v>43283.708333333343</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2593,10 +2116,10 @@
         <v>43283.875</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2614,13 +2137,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>43284.708333333336</v>
+        <v>43284.708333333343</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2641,10 +2164,10 @@
         <v>43284.875</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2662,13 +2185,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>43287.708333333336</v>
+        <v>43287.708333333343</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2689,10 +2212,10 @@
         <v>43287.875</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2710,13 +2233,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>43288.708333333336</v>
+        <v>43288.708333333343</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2737,10 +2260,10 @@
         <v>43288.875</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2761,10 +2284,10 @@
         <v>43291.875</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2785,10 +2308,10 @@
         <v>43292.875</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2806,13 +2329,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>43295.708333333336</v>
+        <v>43295.708333333343</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2833,10 +2356,10 @@
         <v>43296.75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2851,7 +2374,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2875,18 +2398,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -2897,7 +2420,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>36</v>
@@ -2908,7 +2431,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -2919,7 +2442,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -2930,7 +2453,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2">
         <v>16</v>
@@ -2941,7 +2464,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>23</v>
@@ -2952,7 +2475,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>20</v>
@@ -2963,7 +2486,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
@@ -2974,7 +2497,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>45</v>
@@ -2985,7 +2508,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2">
         <v>12</v>
@@ -2996,7 +2519,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
@@ -3007,7 +2530,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -3018,7 +2541,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>37</v>
@@ -3029,7 +2552,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>22</v>
@@ -3040,7 +2563,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>61</v>
@@ -3051,7 +2574,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>57</v>
@@ -3062,7 +2585,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>41</v>
@@ -3073,7 +2596,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -3084,7 +2607,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>48</v>
@@ -3095,7 +2618,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>55</v>
@@ -3106,7 +2629,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <v>11</v>
@@ -3117,7 +2640,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
         <v>8</v>
@@ -3128,7 +2651,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -3139,7 +2662,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2">
         <v>70</v>
@@ -3150,7 +2673,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
         <v>67</v>
@@ -3161,7 +2684,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2">
         <v>27</v>
@@ -3172,7 +2695,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>34</v>
@@ -3183,7 +2706,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
@@ -3194,7 +2717,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2">
         <v>24</v>
@@ -3205,7 +2728,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
@@ -3216,7 +2739,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2">
         <v>21</v>
@@ -3237,11 +2760,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C33" xr:uid="{2B5DFE02-E0D2-4240-819E-08C77C78E7E0}"/>
-  <sortState ref="A3:C50">
-    <sortCondition ref="A3:A50"/>
-  </sortState>
+  <autoFilter ref="A1:C33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{97F8D0B3-D4FB-4D98-AB10-F633E3C104D7}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{325294D4-ABC0-4ED8-B4A2-1AA405779BE4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -739,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -748,10 +748,10 @@
         <v>23</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -767,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -776,10 +776,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -795,7 +795,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -804,10 +804,10 @@
         <v>29</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -823,7 +823,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -851,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -860,7 +860,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{325294D4-ABC0-4ED8-B4A2-1AA405779BE4}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{2D47DCD0-4A15-40FD-84FC-26399B0325FE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +879,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -907,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -935,7 +935,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>42</v>
@@ -944,10 +944,10 @@
         <v>43</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{2D47DCD0-4A15-40FD-84FC-26399B0325FE}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{D2E7CA0F-D69C-4396-B006-5307B7AE69BD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>45</v>
@@ -972,7 +972,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -1000,7 +1000,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{D2E7CA0F-D69C-4396-B006-5307B7AE69BD}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{3A570AF2-5BAD-4E63-98BC-8A0591685A28}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>52</v>
@@ -1056,10 +1056,10 @@
         <v>53</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1075,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>54</v>
@@ -1084,10 +1084,10 @@
         <v>55</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1103,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1112,10 +1112,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{3A570AF2-5BAD-4E63-98BC-8A0591685A28}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{58257981-BE52-4A71-97D9-D287624CE43E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -1140,7 +1140,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{58257981-BE52-4A71-97D9-D287624CE43E}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{023C2F12-26AE-40A5-AF90-EE4681A892E3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -1224,10 +1224,10 @@
         <v>26</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1243,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
         <v>31</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>28</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1604,16 +1604,16 @@
         <v>43276.875</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -1632,16 +1632,16 @@
         <v>43276.875</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -1716,16 +1716,16 @@
         <v>43277.875</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -1744,16 +1744,16 @@
         <v>43277.875</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>43279.708333333343</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>43279.708333333343</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -1940,16 +1940,16 @@
         <v>43279.875</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>43279.875</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{023C2F12-26AE-40A5-AF90-EE4681A892E3}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{5AEFA544-57D1-45BE-9880-87DB9779DBC1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,10 +589,10 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>42</v>
@@ -1308,7 +1308,7 @@
         <v>37</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>35</v>
@@ -1336,7 +1336,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>38</v>
@@ -1364,10 +1364,10 @@
         <v>43</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>47</v>
@@ -1392,10 +1392,10 @@
         <v>50</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1411,7 +1411,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>46</v>
@@ -1420,10 +1420,10 @@
         <v>40</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>39</v>
@@ -1448,10 +1448,10 @@
         <v>45</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1467,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>51</v>
@@ -1476,10 +1476,10 @@
         <v>48</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1495,7 +1495,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>53</v>
@@ -1504,10 +1504,10 @@
         <v>55</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1523,7 +1523,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>54</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1551,7 +1551,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -1560,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -1588,10 +1588,10 @@
         <v>15</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1607,7 +1607,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>23</v>
@@ -1616,10 +1616,10 @@
         <v>19</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1635,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -1644,10 +1644,10 @@
         <v>22</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{5AEFA544-57D1-45BE-9880-87DB9779DBC1}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{5EB0A01D-1572-4642-806C-1F3850650528}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -1691,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>26</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1719,7 +1719,7 @@
         <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>29</v>
@@ -1728,10 +1728,10 @@
         <v>34</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1747,7 +1747,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>35</v>
@@ -1756,10 +1756,10 @@
         <v>28</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1775,7 +1775,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>40</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -1803,7 +1803,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>46</v>
@@ -1812,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>38</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -1859,7 +1859,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>43</v>
@@ -1868,10 +1868,10 @@
         <v>37</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{5EB0A01D-1572-4642-806C-1F3850650528}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{26D1B78A-6790-4B3E-BBAF-0173C65E80A3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="59">
   <si>
     <t>match_number</t>
   </si>
@@ -589,10 +589,10 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,7 +1887,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>55</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1915,7 +1915,7 @@
         <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>53</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1943,7 +1943,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1971,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>48</v>
@@ -1980,10 +1980,10 @@
         <v>50</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2001,8 +2001,12 @@
       <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G50" s="2">
         <v>0</v>
       </c>
@@ -2025,8 +2029,12 @@
       <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
@@ -2049,8 +2057,12 @@
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
@@ -2073,8 +2085,12 @@
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
@@ -2097,8 +2113,12 @@
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
@@ -2121,8 +2141,12 @@
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G55" s="2">
         <v>0</v>
       </c>
@@ -2145,8 +2169,12 @@
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
@@ -2169,8 +2197,12 @@
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
@@ -2374,7 +2406,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{26D1B78A-6790-4B3E-BBAF-0173C65E80A3}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{E527E8C2-36F4-4F43-931F-75EE4AC3FBFD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="59">
   <si>
     <t>match_number</t>
   </si>
@@ -589,10 +589,10 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>25</v>
@@ -2008,10 +2008,10 @@
         <v>28</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2027,7 +2027,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -2036,10 +2036,10 @@
         <v>22</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2055,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>23</v>
@@ -2064,10 +2064,10 @@
         <v>12</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2083,7 +2083,7 @@
         <v>44</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>34</v>
@@ -2092,10 +2092,10 @@
         <v>32</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2111,7 +2111,7 @@
         <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>42</v>
@@ -2120,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>47</v>
@@ -2148,10 +2148,10 @@
         <v>53</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2167,7 +2167,7 @@
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>45</v>
@@ -2176,7 +2176,7 @@
         <v>43</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>52</v>
@@ -2204,10 +2204,10 @@
         <v>51</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2225,8 +2225,12 @@
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
@@ -2249,8 +2253,12 @@
       <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
@@ -2273,8 +2281,12 @@
       <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
@@ -2297,8 +2309,12 @@
       <c r="D61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{E527E8C2-36F4-4F43-931F-75EE4AC3FBFD}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F8022EA5-E371-4E2E-838C-5C7E549795C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="59">
   <si>
     <t>match_number</t>
   </si>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2223,7 @@
         <v>44</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>25</v>
@@ -2232,7 +2232,7 @@
         <v>16</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>47</v>
@@ -2260,10 +2260,10 @@
         <v>42</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2279,7 +2279,7 @@
         <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>51</v>
@@ -2288,7 +2288,7 @@
         <v>45</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -2316,10 +2316,10 @@
         <v>34</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -2337,8 +2337,12 @@
       <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
@@ -2361,8 +2365,12 @@
       <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F8022EA5-E371-4E2E-838C-5C7E549795C8}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{B5894BB7-8DE1-4B98-B6DD-0B0879B2B084}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="59">
   <si>
     <t>match_number</t>
   </si>
@@ -592,7 +592,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>47</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>34</v>
@@ -2372,10 +2372,10 @@
         <v>51</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -2393,8 +2393,12 @@
       <c r="D64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
@@ -2417,8 +2421,12 @@
       <c r="D65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>

--- a/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
+++ b/Gaming/World_Cup_2018/Fifa_world_cup_2018_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\OneDrive\GitHub\PycharmProjects\Gaming\World_Cup_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b7b412bfd75d269/GitHub/PycharmProjects/Gaming/World_Cup_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{B5894BB7-8DE1-4B98-B6DD-0B0879B2B084}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_B8C29A7985D4435D6CEA363750C3B65254F40870" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47BC817-31FA-43A2-912A-48C5506A0CB7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21015" yWindow="180" windowWidth="13935" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fifa_world_cup_2018_matches" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -589,13 +589,13 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>34</v>
@@ -2400,7 +2400,7 @@
         <v>51</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>34</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -2453,7 +2453,7 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
